--- a/SHGraduationWarning/Template/課程與課規比對樣板.xlsx
+++ b/SHGraduationWarning/Template/課程與課規比對樣板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9CFB1C-6B35-41C3-BF8C-2D878B345EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4949AB52-A7DB-4600-BB62-463632ABAFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{17DE5928-7095-4D16-BD4A-1063628BFD2C}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{17DE5928-7095-4D16-BD4A-1063628BFD2C}"/>
   </bookViews>
   <sheets>
     <sheet name="依課程為主比對課規不符合" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0B7FED-4591-494C-A0F3-C5E31ABC4EFE}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -581,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC761B58-D9A2-4C60-A8F8-110BCF4D76CB}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
